--- a/2-2数据计算/Q890角焊缝试件计算-zc.xlsx
+++ b/2-2数据计算/Q890角焊缝试件计算-zc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="822" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="822" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -1744,7 +1744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="E39" sqref="E39:E41"/>
     </sheetView>
   </sheetViews>
@@ -13216,7 +13216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V122"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H11" sqref="H10:H11"/>
     </sheetView>
   </sheetViews>
@@ -16550,7 +16550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -19012,8 +19012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ51" sqref="AJ51"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22684,7 +22684,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
